--- a/branches/final-changes-2022/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/final-changes-2022/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:06:48+00:00</t>
+    <t>2022-11-22T13:23:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/final-changes-2022/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/final-changes-2022/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:23:01+00:00</t>
+    <t>2022-11-23T06:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
